--- a/Experiment_09/09.xlsx
+++ b/Experiment_09/09.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentmust-my.sharepoint.com/personal/1220031811_student_must_edu_mo/Documents/3rd Yr. in MUST/EIE341 Analog Circuit Experiment/Experiment_09/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OD-MUST_student\OneDrive - Macau University of Science and Technology\3rd Yr. in MUST\EIE341 Analog Circuit Experiment\Experiment_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_F25DC773A252ABDACC104849719A52565BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E29D4CA5-BB7A-4C3F-A3D9-A2D3F3114903}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6050EF-D7BB-4EFE-941E-892EE0256622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="7845" windowWidth="22065" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="2910" windowWidth="22065" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>AC VG</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +71,10 @@
   </si>
   <si>
     <t>0.0.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,8 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +406,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="A9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,6 +450,27 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f>B3/B2</f>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:E4" si="0">C3/C2</f>
+        <v>7.9423076923076925</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>7.9230769230769234</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
@@ -457,10 +496,10 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -468,10 +507,10 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -479,10 +518,10 @@
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.52200000000000002</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.436</v>
       </c>
     </row>
